--- a/data/trans_camb/P1803-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1803-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 7,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 9,28</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 7,24</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 8,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 6,77</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 7,42</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -638,6 +804,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,71</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10,47</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,2</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,99; 6,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,78; 11,36</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 9,35</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7,7; 14,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 7,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 11,72</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -734,6 +1020,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>6,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,65</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,25</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,48</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 8,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 15,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 6,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 13,05</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 6,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 13,47</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -830,6 +1236,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16,92</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10,82</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13,82</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 6,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,62; 38,34</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 7,31</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 12,76</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 6,53</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 24,3</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -926,6 +1452,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -945,12 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7,73</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12,98</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,35</t>
         </is>
       </c>
     </row>
@@ -968,12 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 7,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,8; 10,05</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 9,18</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 14,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 7,32</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9,03; 12,03</t>
         </is>
       </c>
     </row>
@@ -991,12 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1022,6 +1668,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1041,12 +1717,42 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 3,69</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,55; 6,33</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 7,21</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 9,14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 5,21</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 7,5</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1118,6 +1884,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1137,12 +1933,42 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>4,58</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>9,55</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,63</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>9,59</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1986,42 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 5,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,78; 14,53</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 6,29</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 10,48</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 5,64</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 11,79</t>
         </is>
       </c>
     </row>
@@ -1183,12 +2039,42 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1214,6 +2100,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1223,10 +2139,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P1803-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,29 +642,29 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>4,9</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,81</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,7</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>5,03</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>4,87</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,28</t>
+          <t>1,94; 9,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 8,88</t>
+          <t>2,37; 9,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,42</t>
+          <t>2,77; 7,89</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>9,02</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,36</t>
+          <t>4,98; 11,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 14,11</t>
+          <t>6,07; 13,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,72</t>
+          <t>6,68; 11,68</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>12,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,48</t>
+          <t>11,97</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,14</t>
+          <t>9,87; 15,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,05</t>
+          <t>8,8; 13,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 13,47</t>
+          <t>10,25; 14,22</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>35,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,82</t>
+          <t>24,41</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 38,34</t>
+          <t>9,87; 72,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,76</t>
+          <t>8,67; 12,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,3</t>
+          <t>10,16; 52,46</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>10,64</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,05</t>
+          <t>6,1; 10,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,96; 14,94</t>
+          <t>11,14; 15,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,03; 12,03</t>
+          <t>9,28; 12,32</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,88</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,69</t>
+          <t>0,89; 3,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,33</t>
+          <t>4,54; 8,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,21</t>
+          <t>4,6; 10,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,14</t>
+          <t>2,9; 11,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,21</t>
+          <t>3,1; 6,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,5</t>
+          <t>3,57; 9,32</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>5,15</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,33</t>
+          <t>1,27; 4,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,53</t>
+          <t>1,81; 5,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,29</t>
+          <t>2,12; 6,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,48</t>
+          <t>4,9; 8,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,64</t>
+          <t>2,08; 4,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,79</t>
+          <t>4,17; 6,57</t>
         </is>
       </c>
     </row>
@@ -2132,14 +2132,231 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,58</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>14,87</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>12,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 5,33</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 34,04</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 6,29</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 10,46</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 5,64</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>8,69; 21,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P1803-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Edad-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,86</t>
+          <t>3,19; 7,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,49</t>
+          <t>2,2; 9,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,24</t>
+          <t>2,99; 7,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,29</t>
+          <t>2,58; 8,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,77</t>
+          <t>3,62; 6,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,89</t>
+          <t>2,8; 8,25</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,69</t>
+          <t>2,97; 6,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,88</t>
+          <t>5,07; 12,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,35</t>
+          <t>5,3; 9,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,46</t>
+          <t>6,0; 13,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,32</t>
+          <t>4,56; 7,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,68</t>
+          <t>6,62; 11,47</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,23</t>
+          <t>4,35; 8,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,87; 15,84</t>
+          <t>9,9; 16,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,54</t>
+          <t>3,06; 6,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,44</t>
+          <t>8,78; 13,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,61</t>
+          <t>4,16; 6,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,22</t>
+          <t>10,09; 13,88</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,75</t>
+          <t>3,14; 6,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 72,06</t>
+          <t>9,96; 70,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,31</t>
+          <t>3,75; 7,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,72</t>
+          <t>8,62; 12,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,53</t>
+          <t>3,85; 6,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,16; 52,46</t>
+          <t>10,33; 54,88</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,2</t>
+          <t>2,91; 6,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,47</t>
+          <t>6,12; 10,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,18</t>
+          <t>4,15; 9,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,14; 15,24</t>
+          <t>11,32; 15,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,32</t>
+          <t>4,01; 7,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,32</t>
+          <t>9,3; 12,44</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,97</t>
+          <t>0,88; 3,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,79</t>
+          <t>4,72; 8,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,42</t>
+          <t>4,63; 10,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,46</t>
+          <t>2,96; 11,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,56</t>
+          <t>3,34; 6,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,32</t>
+          <t>3,64; 9,35</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,86</t>
+          <t>1,26; 4,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,28</t>
+          <t>1,72; 5,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,25</t>
+          <t>2,16; 6,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,29</t>
+          <t>4,99; 8,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,98</t>
+          <t>2,01; 4,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,57</t>
+          <t>4,05; 6,46</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,33</t>
+          <t>3,93; 5,41</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>8,04; 34,04</t>
+          <t>8,0; 34,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,29</t>
+          <t>4,68; 6,23</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,46</t>
+          <t>7,39; 10,43</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,64</t>
+          <t>4,53; 5,64</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>8,69; 21,74</t>
+          <t>8,72; 23,43</t>
         </is>
       </c>
     </row>
